--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44AFD5E-DAF9-46CA-BA73-2F56CEC6EC78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3EC2A6-5DBE-4AA2-8D4D-C6A0505C6F9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>タグ名</t>
     <rPh sb="2" eb="3">
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>delay</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -55,16 +51,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルト（空白は必須）</t>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒッス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -75,13 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データURL、パス等</t>
     <rPh sb="9" eb="10">
       <t>トウ</t>
@@ -89,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"BGM" "SE" "VOICE"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同期</t>
     <rPh sb="0" eb="2">
       <t>ドウキ</t>
@@ -133,75 +108,277 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再生開始までの時間（秒）</t>
+    <t>audiostop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>audiopause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>audioresume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int / string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0にする？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imagefree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特記事項</t>
+    <rPh sb="0" eb="2">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴っている音を止める</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音を再生する</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音の一時停止</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音の一時停止解除</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略不可</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生開始まで遅延させる時間（ミリ秒）</t>
     <rPh sb="0" eb="2">
       <t>サイセイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイシ</t>
     </rPh>
+    <rPh sb="6" eb="8">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループON/OFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードアウト時間（ミリ秒）</t>
     <rPh sb="7" eb="9">
       <t>ジカン</t>
     </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードイン時間（ミリ秒）</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードアウト時間（秒）</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
     <rPh sb="10" eb="11">
       <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ループをするか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>audiostop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再生停止までの時間（秒）</t>
-    <rPh sb="0" eb="2">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>レイヤーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードイン時間</t>
+    <rPh sb="6" eb="8">
       <t>ジカン</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>audiopause</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>audioresume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int / string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0にする？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"CHARA" "BG" "EVENT"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>imagefree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yoff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標補正値</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intもしくはcolor文字列</t>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>white(#FFFFFFFF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャの色</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤに画像をロードする</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤから画像を削除する</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,267 +746,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7694E-C34A-4AF6-AD55-184CC16CE10F}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3EC2A6-5DBE-4AA2-8D4D-C6A0505C6F9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0808EC5-C809-4B64-B6A1-4F5E0751B84E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>タグ名</t>
     <rPh sb="2" eb="3">
@@ -378,6 +378,80 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>videoplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期/非同期</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期/非同期</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略付加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルのURL（Web/ローカル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了を待つ（loopとは排他使用）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -746,17 +820,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7694E-C34A-4AF6-AD55-184CC16CE10F}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
@@ -791,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -870,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -1084,6 +1158,54 @@
       </c>
       <c r="G19" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Swatty\Desktop\Trionfi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0808EC5-C809-4B64-B6A1-4F5E0751B84E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3CEA0-EA87-4616-A372-C1381693884E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Swatty\Desktop\Trionfi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3CEA0-EA87-4616-A372-C1381693884E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6185E23-431E-45EA-996A-7E538EA08F59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>タグ名</t>
     <rPh sb="2" eb="3">
@@ -149,16 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特記事項</t>
-    <rPh sb="0" eb="2">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鳴っている音を止める</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
@@ -454,6 +443,448 @@
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤのスナップショットを撮る</t>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snapshot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transを呼び出すまでsnapshotが最前面になる</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイゼンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面のトランジション</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランジションにかける時間（ミリ秒）</t>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし（通常のクロスフェード）</t>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランジションに使うルール画像の名前</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール画像はTrionfi/Resources/Ruleにおくことが必須</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクロの開始</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクロの開始終了</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macroend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクロの削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macroerace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢の設定（追加）</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seladd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢が選ばれた時の飛び先ラベル</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略不可</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢のテキスト</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢の実行</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイリアスの設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイリアス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイリアス対象タグ名</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name、tag以外のパラメータはエイリアス実行時に一緒に渡される。</t>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件分岐</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価式</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価式は""で囲う必要がある</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ifと対応していなければいけない</t>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elseif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if～else（elself）と対応していなければならない</t>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の再生</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>videoplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画のパスorURL</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルの場合はAssets/からの相対パス。</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の一時停止</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>videopause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の停止</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>videostop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の再開</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>videoresume</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,24 +1252,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7694E-C34A-4AF6-AD55-184CC16CE10F}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -846,27 +1278,30 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -875,15 +1310,15 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -892,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -906,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -920,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -934,33 +1369,33 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -971,12 +1406,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -985,19 +1420,19 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>12</v>
       </c>
@@ -1008,12 +1443,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1022,19 +1457,19 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -1048,9 +1483,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1068,24 +1503,24 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>24</v>
       </c>
@@ -1096,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1147,7 +1582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -1158,55 +1593,365 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
-        <v>65</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Assets\Trionfi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6185E23-431E-45EA-996A-7E538EA08F59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635032D2-DBAC-4E52-9296-3CB59B2BD045}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>タグ名</t>
     <rPh sb="2" eb="3">
@@ -885,6 +885,110 @@
   </si>
   <si>
     <t>videoresume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台詞の表示速度一時変更</t>
+    <rPh sb="0" eb="2">
+      <t>セリフ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の1ワードの表示速度をratioの倍率で表示します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台詞ウィンドウの振動</t>
+    <rPh sb="0" eb="2">
+      <t>セリフ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messhake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示速度の倍率</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振幅</t>
+    <rPh sb="0" eb="2">
+      <t>シンプク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vibrato</t>
+  </si>
+  <si>
+    <t>振動頻度</t>
+    <rPh sb="0" eb="2">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1252,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7694E-C34A-4AF6-AD55-184CC16CE10F}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1756,6 +1860,9 @@
       <c r="B29" t="s">
         <v>124</v>
       </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -1764,83 +1871,101 @@
       <c r="B30" t="s">
         <v>128</v>
       </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
@@ -1848,16 +1973,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
         <v>91</v>
@@ -1866,15 +1991,12 @@
         <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
         <v>91</v>
@@ -1883,55 +2005,49 @@
         <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
       </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
         <v>91</v>
@@ -1940,17 +2056,74 @@
         <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>113</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I45" t="s">
         <v>114</v>
       </c>
     </row>

--- a/Documents/TagReference.xlsx
+++ b/Documents/TagReference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izutsu\Desktop\Trionfi\Assets\Trionfi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井筒　紗奈\Desktop\Trionfi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635032D2-DBAC-4E52-9296-3CB59B2BD045}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811428A-0673-48AB-B311-90C8E17C9ACC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{7F702E2A-9EB7-4142-98AC-0C9039DFE745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
   <si>
     <t>タグ名</t>
     <rPh sb="2" eb="3">
@@ -806,43 +806,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>videoplay</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動画のパスorURL</t>
-    <rPh sb="0" eb="2">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカルの場合はAssets/からの相対パス。</t>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ループさせる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>動画の一時停止</t>
     <rPh sb="0" eb="2">
       <t>ドウガ</t>
@@ -988,6 +951,156 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヒンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストレイヤに文字を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laytext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動機</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する文字列</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤに紐付けるキャラ名（messageの話者と関連します）</t>
+    <rPh sb="4" eb="6">
+      <t>ヒモヅ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ワシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>snap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤのサイズを画像のサイズにあわせる</t>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面幅</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面高さ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤのwidthを指定（snapとは排他）</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤのheightを指定（snapとは排他）</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mesface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台詞ウィンドウの画像指定</t>
+    <rPh sb="0" eb="2">
+      <t>セリフ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージウィンドウと一体化している場合は不要</t>
+    <rPh sb="11" eb="14">
+      <t>イッタイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1356,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7694E-C34A-4AF6-AD55-184CC16CE10F}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1626,394 +1739,400 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G23" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>74</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>1000</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>79</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="I37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
@@ -2021,33 +2140,27 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>91</v>
@@ -2056,21 +2169,12 @@
         <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>91</v>
@@ -2079,32 +2183,32 @@
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
       </c>
-      <c r="I43" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
         <v>91</v>
@@ -2113,17 +2217,91 @@
         <v>94</v>
       </c>
       <c r="G44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
         <v>108</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>113</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I49" t="s">
         <v>114</v>
       </c>
     </row>
